--- a/artfynd/Stockbäcken artfynd.xlsx
+++ b/artfynd/Stockbäcken artfynd.xlsx
@@ -1311,10 +1311,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>396587</v>
+        <v>98688</v>
       </c>
       <c r="B8" t="n">
-        <v>91699</v>
+        <v>91446</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1322,21 +1322,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1209</v>
+        <v>48</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Romell) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>708753</v>
+        <v>708740</v>
       </c>
       <c r="R8" t="n">
-        <v>7070589</v>
+        <v>7070666</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1413,10 +1413,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>98688</v>
+        <v>396587</v>
       </c>
       <c r="B9" t="n">
-        <v>91446</v>
+        <v>91699</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1424,21 +1424,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>48</v>
+        <v>1209</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Romell) Bondartsev &amp; Singer</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>708740</v>
+        <v>708753</v>
       </c>
       <c r="R9" t="n">
-        <v>7070666</v>
+        <v>7070589</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1735,10 +1735,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>56826118</v>
+        <v>56826089</v>
       </c>
       <c r="B12" t="n">
-        <v>78980</v>
+        <v>91263</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1746,21 +1746,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>708632</v>
+        <v>708972</v>
       </c>
       <c r="R12" t="n">
-        <v>7070854</v>
+        <v>7070903</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>torrgran/granlåga</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1842,10 +1842,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>56826089</v>
+        <v>56826118</v>
       </c>
       <c r="B13" t="n">
-        <v>91263</v>
+        <v>78980</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1853,21 +1853,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1877,10 +1877,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>708972</v>
+        <v>708632</v>
       </c>
       <c r="R13" t="n">
-        <v>7070903</v>
+        <v>7070854</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>torrgran/granlåga</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2056,45 +2056,45 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>17225132</v>
+        <v>56826090</v>
       </c>
       <c r="B15" t="n">
-        <v>91699</v>
+        <v>82792</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1209</v>
+        <v>1312</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Lillsjökullarna-Storåsen, Ång</t>
+          <t>Stockbäcken, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>708661</v>
+        <v>708967</v>
       </c>
       <c r="R15" t="n">
-        <v>7070461</v>
+        <v>7070914</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2121,12 +2121,12 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2012-10-18</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2012-10-18</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2138,40 +2138,28 @@
       <c r="AG15" t="b">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AN15" t="n">
-        <v>1</v>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>1 substratenheter # gran # Picea abies</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Magnus Johansson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Magnus Johansson</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2282,45 +2270,45 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>56826090</v>
+        <v>17225132</v>
       </c>
       <c r="B17" t="n">
-        <v>82792</v>
+        <v>91699</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1312</v>
+        <v>1209</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Stockbäcken, Ång</t>
+          <t>Lillsjökullarna-Storåsen, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>708967</v>
+        <v>708661</v>
       </c>
       <c r="R17" t="n">
-        <v>7070914</v>
+        <v>7070461</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2347,12 +2335,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2012-10-18</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2012-10-18</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2364,57 +2352,69 @@
       <c r="AG17" t="b">
         <v>0</v>
       </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AN17" t="n">
+        <v>1</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>1 substratenheter # gran # Picea abies</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Magnus Johansson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
-        </is>
-      </c>
-      <c r="AY17" t="inlineStr"/>
+          <t>Magnus Johansson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>396586</v>
+        <v>1569799</v>
       </c>
       <c r="B18" t="n">
-        <v>91699</v>
+        <v>91263</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1209</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>708760</v>
+        <v>708632</v>
       </c>
       <c r="R18" t="n">
-        <v>7070651</v>
+        <v>7070278</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2460,11 +2460,6 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2012-10-18</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Även gränsticka</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2496,32 +2491,32 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1569799</v>
+        <v>396586</v>
       </c>
       <c r="B19" t="n">
-        <v>91263</v>
+        <v>91699</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>1209</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2531,10 +2526,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>708632</v>
+        <v>708760</v>
       </c>
       <c r="R19" t="n">
-        <v>7070278</v>
+        <v>7070651</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2567,6 +2562,11 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2012-10-18</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Även gränsticka</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2598,10 +2598,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>56826117</v>
+        <v>56071576</v>
       </c>
       <c r="B20" t="n">
-        <v>79012</v>
+        <v>78980</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2609,34 +2609,38 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Stockbäcken, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>708587</v>
+        <v>708533</v>
       </c>
       <c r="R20" t="n">
-        <v>7070979</v>
+        <v>7070310</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2663,12 +2667,12 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2015-10-19</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2015-10-19</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2679,33 +2683,23 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>56826109</v>
+        <v>56826117</v>
       </c>
       <c r="B21" t="n">
         <v>79012</v>
@@ -2740,10 +2734,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>708414</v>
+        <v>708587</v>
       </c>
       <c r="R21" t="n">
-        <v>7071104</v>
+        <v>7070979</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2812,10 +2806,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>56826108</v>
+        <v>56826109</v>
       </c>
       <c r="B22" t="n">
-        <v>78980</v>
+        <v>79012</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2823,21 +2817,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2847,10 +2841,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>708435</v>
+        <v>708414</v>
       </c>
       <c r="R22" t="n">
-        <v>7071092</v>
+        <v>7071104</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2919,7 +2913,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>56071576</v>
+        <v>56826108</v>
       </c>
       <c r="B23" t="n">
         <v>78980</v>
@@ -2947,21 +2941,17 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Stockbäcken, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>708533</v>
+        <v>708435</v>
       </c>
       <c r="R23" t="n">
-        <v>7070310</v>
+        <v>7071092</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2988,12 +2978,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2015-10-19</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2015-10-19</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3004,16 +2994,26 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
@@ -3562,10 +3562,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>56071577</v>
+        <v>56826099</v>
       </c>
       <c r="B29" t="n">
-        <v>88654</v>
+        <v>78980</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3573,38 +3573,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Stockbäcken, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>708572</v>
+        <v>708714</v>
       </c>
       <c r="R29" t="n">
-        <v>7070338</v>
+        <v>7070984</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3631,12 +3627,12 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2015-10-19</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2015-10-19</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3647,26 +3643,36 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>56826094</v>
+        <v>56826119</v>
       </c>
       <c r="B30" t="n">
-        <v>78980</v>
+        <v>78739</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3674,21 +3680,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3698,10 +3704,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>708805</v>
+        <v>708539</v>
       </c>
       <c r="R30" t="n">
-        <v>7070899</v>
+        <v>7070736</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3752,7 +3758,7 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -3770,10 +3776,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>56826119</v>
+        <v>56826094</v>
       </c>
       <c r="B31" t="n">
-        <v>78739</v>
+        <v>78980</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3781,21 +3787,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3805,10 +3811,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>708539</v>
+        <v>708805</v>
       </c>
       <c r="R31" t="n">
-        <v>7070736</v>
+        <v>7070899</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3859,7 +3865,7 @@
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -3877,10 +3883,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>56826099</v>
+        <v>56071577</v>
       </c>
       <c r="B32" t="n">
-        <v>78980</v>
+        <v>88654</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3888,34 +3894,38 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Stockbäcken, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>708714</v>
+        <v>708572</v>
       </c>
       <c r="R32" t="n">
-        <v>7070984</v>
+        <v>7070338</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3942,12 +3952,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2015-10-19</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2015-10-19</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3958,26 +3968,16 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
@@ -4526,32 +4526,32 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>56826120</v>
+        <v>56826087</v>
       </c>
       <c r="B38" t="n">
-        <v>78980</v>
+        <v>95594</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>2809</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4561,10 +4561,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>708484</v>
+        <v>708998</v>
       </c>
       <c r="R38" t="n">
-        <v>7070628</v>
+        <v>7070851</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4611,11 +4611,6 @@
       <c r="AI38" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>gran</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -4633,32 +4628,32 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>56826087</v>
+        <v>56826120</v>
       </c>
       <c r="B39" t="n">
-        <v>95594</v>
+        <v>78980</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2809</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4668,10 +4663,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>708998</v>
+        <v>708484</v>
       </c>
       <c r="R39" t="n">
-        <v>7070851</v>
+        <v>7070628</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4718,6 +4713,11 @@
       <c r="AI39" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5152,32 +5152,32 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>56826116</v>
+        <v>56826114</v>
       </c>
       <c r="B44" t="n">
-        <v>78980</v>
+        <v>79956</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>392</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5187,10 +5187,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>708556</v>
+        <v>708488</v>
       </c>
       <c r="R44" t="n">
-        <v>7070992</v>
+        <v>7071024</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -5259,32 +5259,32 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>56826114</v>
+        <v>56826116</v>
       </c>
       <c r="B45" t="n">
-        <v>79956</v>
+        <v>78980</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>392</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5294,10 +5294,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>708488</v>
+        <v>708556</v>
       </c>
       <c r="R45" t="n">
-        <v>7071024</v>
+        <v>7070992</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5348,7 +5348,7 @@
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -5485,10 +5485,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>56826122</v>
+        <v>56826104</v>
       </c>
       <c r="B47" t="n">
-        <v>79012</v>
+        <v>79569</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5496,21 +5496,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>185</v>
+        <v>229821</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5520,10 +5520,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>708455</v>
+        <v>708539</v>
       </c>
       <c r="R47" t="n">
-        <v>7070561</v>
+        <v>7071115</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5574,7 +5574,7 @@
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -5592,10 +5592,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>56826104</v>
+        <v>56826122</v>
       </c>
       <c r="B48" t="n">
-        <v>79569</v>
+        <v>79012</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5603,21 +5603,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>229821</v>
+        <v>185</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5627,10 +5627,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>708539</v>
+        <v>708455</v>
       </c>
       <c r="R48" t="n">
-        <v>7071115</v>
+        <v>7070561</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -5913,37 +5913,44 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>56071572</v>
+        <v>56374410</v>
       </c>
       <c r="B51" t="n">
-        <v>79569</v>
+        <v>57761</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>229821</v>
+        <v>103031</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Lavskrika</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Perisoreus infaustus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>stationär</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -5952,13 +5959,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>708404</v>
+        <v>708770</v>
       </c>
       <c r="R51" t="n">
-        <v>7070148</v>
+        <v>7070823</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -5982,12 +5989,12 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2015-10-19</t>
+          <t>2007-10-18</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2015-10-19</t>
+          <t>2007-10-18</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6002,56 +6009,49 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>56374410</v>
+        <v>56071571</v>
       </c>
       <c r="B52" t="n">
-        <v>57761</v>
+        <v>77929</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>103031</v>
+        <v>6487</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lavskrika</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Perisoreus infaustus</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>stationär</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -6060,13 +6060,13 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>708770</v>
+        <v>708397</v>
       </c>
       <c r="R52" t="n">
-        <v>7070823</v>
+        <v>7070143</v>
       </c>
       <c r="S52" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6090,12 +6090,12 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2007-10-18</t>
+          <t>2015-10-19</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2007-10-18</t>
+          <t>2015-10-19</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6110,22 +6110,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>56071571</v>
+        <v>56071572</v>
       </c>
       <c r="B53" t="n">
-        <v>77929</v>
+        <v>79569</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6133,21 +6133,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6487</v>
+        <v>229821</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -6161,10 +6161,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>708397</v>
+        <v>708404</v>
       </c>
       <c r="R53" t="n">
-        <v>7070143</v>
+        <v>7070148</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6549,10 +6549,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56826088</v>
+        <v>56826110</v>
       </c>
       <c r="B57" t="n">
-        <v>75080</v>
+        <v>79012</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6560,21 +6560,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1467</v>
+        <v>185</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6584,10 +6584,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>708970</v>
+        <v>708400</v>
       </c>
       <c r="R57" t="n">
-        <v>7070894</v>
+        <v>7071143</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>björkstubbe</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -6656,10 +6656,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>56826110</v>
+        <v>56826088</v>
       </c>
       <c r="B58" t="n">
-        <v>79012</v>
+        <v>75080</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6667,21 +6667,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>185</v>
+        <v>1467</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6691,10 +6691,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>708400</v>
+        <v>708970</v>
       </c>
       <c r="R58" t="n">
-        <v>7071143</v>
+        <v>7070894</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="AO58" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>björkstubbe</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -7302,10 +7302,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>299349</v>
+        <v>344329</v>
       </c>
       <c r="B64" t="n">
-        <v>91245</v>
+        <v>91259</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7313,21 +7313,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7337,13 +7337,13 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>709018</v>
+        <v>708733</v>
       </c>
       <c r="R64" t="n">
-        <v>7070851</v>
+        <v>7070656</v>
       </c>
       <c r="S64" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -7373,11 +7373,6 @@
       <c r="AA64" t="inlineStr">
         <is>
           <t>2007-10-18</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>på två lågor</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7414,7 +7409,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>344329</v>
+        <v>344328</v>
       </c>
       <c r="B65" t="n">
         <v>91259</v>
@@ -7449,13 +7444,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>708733</v>
+        <v>708801</v>
       </c>
       <c r="R65" t="n">
-        <v>7070656</v>
+        <v>7070686</v>
       </c>
       <c r="S65" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -7521,7 +7516,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>344328</v>
+        <v>344327</v>
       </c>
       <c r="B66" t="n">
         <v>91259</v>
@@ -7556,10 +7551,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>708801</v>
+        <v>708815</v>
       </c>
       <c r="R66" t="n">
-        <v>7070686</v>
+        <v>7070673</v>
       </c>
       <c r="S66" t="n">
         <v>5</v>
@@ -7592,6 +7587,11 @@
       <c r="AA66" t="inlineStr">
         <is>
           <t>2007-10-18</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>på en låga som ligger rakt över bäcken. Fruktkroppen sitter precis över bäcken</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7628,10 +7628,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>344327</v>
+        <v>162863</v>
       </c>
       <c r="B67" t="n">
-        <v>91259</v>
+        <v>88654</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7639,21 +7639,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1204</v>
+        <v>510</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -7663,10 +7663,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>708815</v>
+        <v>708740</v>
       </c>
       <c r="R67" t="n">
-        <v>7070673</v>
+        <v>7070666</v>
       </c>
       <c r="S67" t="n">
         <v>5</v>
@@ -7699,11 +7699,6 @@
       <c r="AA67" t="inlineStr">
         <is>
           <t>2007-10-18</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>på en låga som ligger rakt över bäcken. Fruktkroppen sitter precis över bäcken</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7740,10 +7735,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>162863</v>
+        <v>299349</v>
       </c>
       <c r="B68" t="n">
-        <v>88654</v>
+        <v>91245</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7751,21 +7746,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>510</v>
+        <v>1202</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7775,13 +7770,13 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>708740</v>
+        <v>709018</v>
       </c>
       <c r="R68" t="n">
-        <v>7070666</v>
+        <v>7070851</v>
       </c>
       <c r="S68" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -7811,6 +7806,11 @@
       <c r="AA68" t="inlineStr">
         <is>
           <t>2007-10-18</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>på två lågor</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7847,10 +7847,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>56826098</v>
+        <v>56826107</v>
       </c>
       <c r="B69" t="n">
-        <v>78980</v>
+        <v>79569</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7858,21 +7858,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>229821</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7882,10 +7882,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>708731</v>
+        <v>708487</v>
       </c>
       <c r="R69" t="n">
-        <v>7070904</v>
+        <v>7071123</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="AO69" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>silverstubbe tall</t>
         </is>
       </c>
       <c r="AT69" t="inlineStr"/>
@@ -7954,10 +7954,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>56826123</v>
+        <v>56826095</v>
       </c>
       <c r="B70" t="n">
-        <v>78980</v>
+        <v>79012</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7965,21 +7965,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -7989,10 +7989,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>708509</v>
+        <v>708805</v>
       </c>
       <c r="R70" t="n">
-        <v>7070534</v>
+        <v>7070899</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8061,10 +8061,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>56826095</v>
+        <v>56826098</v>
       </c>
       <c r="B71" t="n">
-        <v>79012</v>
+        <v>78980</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8072,21 +8072,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8096,10 +8096,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>708805</v>
+        <v>708731</v>
       </c>
       <c r="R71" t="n">
-        <v>7070899</v>
+        <v>7070904</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8168,10 +8168,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>56826107</v>
+        <v>56826123</v>
       </c>
       <c r="B72" t="n">
-        <v>79569</v>
+        <v>78980</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8179,21 +8179,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8203,10 +8203,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>708487</v>
+        <v>708509</v>
       </c>
       <c r="R72" t="n">
-        <v>7071123</v>
+        <v>7070534</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8257,7 +8257,7 @@
       </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>silverstubbe tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr"/>
@@ -8590,10 +8590,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>56826101</v>
+        <v>56826128</v>
       </c>
       <c r="B76" t="n">
-        <v>78980</v>
+        <v>82792</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8601,21 +8601,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -8625,10 +8625,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>708673</v>
+        <v>708948</v>
       </c>
       <c r="R76" t="n">
-        <v>7071044</v>
+        <v>7070843</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8679,7 +8679,7 @@
       </c>
       <c r="AO76" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr"/>
@@ -8697,7 +8697,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>56826121</v>
+        <v>56826097</v>
       </c>
       <c r="B77" t="n">
         <v>78980</v>
@@ -8732,10 +8732,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>708464</v>
+        <v>708765</v>
       </c>
       <c r="R77" t="n">
-        <v>7070612</v>
+        <v>7070877</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8804,7 +8804,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>56826097</v>
+        <v>56826101</v>
       </c>
       <c r="B78" t="n">
         <v>78980</v>
@@ -8839,10 +8839,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>708765</v>
+        <v>708673</v>
       </c>
       <c r="R78" t="n">
-        <v>7070877</v>
+        <v>7071044</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8893,7 +8893,7 @@
       </c>
       <c r="AO78" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT78" t="inlineStr"/>
@@ -8911,10 +8911,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>56826128</v>
+        <v>56826121</v>
       </c>
       <c r="B79" t="n">
-        <v>82792</v>
+        <v>78980</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8922,21 +8922,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>708948</v>
+        <v>708464</v>
       </c>
       <c r="R79" t="n">
-        <v>7070843</v>
+        <v>7070612</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9000,7 +9000,7 @@
       </c>
       <c r="AO79" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT79" t="inlineStr"/>

--- a/artfynd/Stockbäcken artfynd.xlsx
+++ b/artfynd/Stockbäcken artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>344332</v>
+        <v>375618</v>
       </c>
       <c r="B2" t="n">
         <v>91259</v>
@@ -711,14 +711,14 @@
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Stockbäcken, Ång</t>
+          <t>Lillsjökullarna-Storåsen, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>708762</v>
+        <v>708639</v>
       </c>
       <c r="R2" t="n">
-        <v>7070666</v>
+        <v>7070283</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -745,12 +745,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2007-10-18</t>
+          <t>2012-10-18</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2007-10-18</t>
+          <t>2012-10-18</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -765,29 +765,24 @@
       <c r="AH2" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Gran</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>SCA Naturvärdesinventeringar</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Via SCA Naturvärdesinventeringar</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>344331</v>
+        <v>344332</v>
       </c>
       <c r="B3" t="n">
         <v>91259</v>
@@ -822,10 +817,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>708650</v>
+        <v>708762</v>
       </c>
       <c r="R3" t="n">
-        <v>7070604</v>
+        <v>7070666</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -858,11 +853,6 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2007-10-18</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Gränsticka vid basen och vedticka högre upp på samma låga</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -899,7 +889,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>375618</v>
+        <v>344331</v>
       </c>
       <c r="B4" t="n">
         <v>91259</v>
@@ -930,14 +920,14 @@
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Lillsjökullarna-Storåsen, Ång</t>
+          <t>Stockbäcken, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>708639</v>
+        <v>708650</v>
       </c>
       <c r="R4" t="n">
-        <v>7070283</v>
+        <v>7070604</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,12 +954,17 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2012-10-18</t>
+          <t>2007-10-18</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2012-10-18</t>
+          <t>2007-10-18</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Gränsticka vid basen och vedticka högre upp på samma låga</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -984,17 +979,22 @@
       <c r="AH4" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>SCA Naturvärdesinventeringar</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Via SCA Naturvärdesinventeringar</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
@@ -1209,32 +1209,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1569800</v>
+        <v>396587</v>
       </c>
       <c r="B7" t="n">
-        <v>91263</v>
+        <v>91699</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>1209</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1244,10 +1244,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>708668</v>
+        <v>708753</v>
       </c>
       <c r="R7" t="n">
-        <v>7070402</v>
+        <v>7070589</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1413,32 +1413,32 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>396587</v>
+        <v>1569800</v>
       </c>
       <c r="B9" t="n">
-        <v>91699</v>
+        <v>91263</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1209</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>708753</v>
+        <v>708668</v>
       </c>
       <c r="R9" t="n">
-        <v>7070589</v>
+        <v>7070402</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1735,10 +1735,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>56826089</v>
+        <v>56826118</v>
       </c>
       <c r="B12" t="n">
-        <v>91263</v>
+        <v>78980</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1746,21 +1746,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>708972</v>
+        <v>708632</v>
       </c>
       <c r="R12" t="n">
-        <v>7070903</v>
+        <v>7070854</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>torrgran/granlåga</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1842,10 +1842,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>56826118</v>
+        <v>56826089</v>
       </c>
       <c r="B13" t="n">
-        <v>78980</v>
+        <v>91263</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1853,21 +1853,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1877,10 +1877,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>708632</v>
+        <v>708972</v>
       </c>
       <c r="R13" t="n">
-        <v>7070854</v>
+        <v>7070903</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>torrgran/granlåga</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2056,45 +2056,45 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>56826090</v>
+        <v>17225132</v>
       </c>
       <c r="B15" t="n">
-        <v>82792</v>
+        <v>91699</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1312</v>
+        <v>1209</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Stockbäcken, Ång</t>
+          <t>Lillsjökullarna-Storåsen, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>708967</v>
+        <v>708661</v>
       </c>
       <c r="R15" t="n">
-        <v>7070914</v>
+        <v>7070461</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2121,12 +2121,12 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2012-10-18</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2012-10-18</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2138,32 +2138,44 @@
       <c r="AG15" t="b">
         <v>0</v>
       </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AN15" t="n">
+        <v>1</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>1 substratenheter # gran # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Magnus Johansson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr"/>
+          <t>Magnus Johansson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>56826102</v>
+        <v>56826090</v>
       </c>
       <c r="B16" t="n">
         <v>82792</v>
@@ -2198,10 +2210,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>708643</v>
+        <v>708967</v>
       </c>
       <c r="R16" t="n">
-        <v>7071063</v>
+        <v>7070914</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2270,45 +2282,45 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17225132</v>
+        <v>56826102</v>
       </c>
       <c r="B17" t="n">
-        <v>91699</v>
+        <v>82792</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1209</v>
+        <v>1312</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Lillsjökullarna-Storåsen, Ång</t>
+          <t>Stockbäcken, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>708661</v>
+        <v>708643</v>
       </c>
       <c r="R17" t="n">
-        <v>7070461</v>
+        <v>7071063</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2335,12 +2347,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2012-10-18</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2012-10-18</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2352,69 +2364,57 @@
       <c r="AG17" t="b">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AN17" t="n">
-        <v>1</v>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1 substratenheter # gran # Picea abies</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Magnus Johansson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Magnus Johansson</t>
-        </is>
-      </c>
-      <c r="AY17" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1569799</v>
+        <v>396586</v>
       </c>
       <c r="B18" t="n">
-        <v>91263</v>
+        <v>91699</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>1209</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>708632</v>
+        <v>708760</v>
       </c>
       <c r="R18" t="n">
-        <v>7070278</v>
+        <v>7070651</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2460,6 +2460,11 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2012-10-18</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Även gränsticka</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2491,32 +2496,32 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>396586</v>
+        <v>1569799</v>
       </c>
       <c r="B19" t="n">
-        <v>91699</v>
+        <v>91263</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1209</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2526,10 +2531,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>708760</v>
+        <v>708632</v>
       </c>
       <c r="R19" t="n">
-        <v>7070651</v>
+        <v>7070278</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2562,11 +2567,6 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2012-10-18</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Även gränsticka</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2699,10 +2699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>56826117</v>
+        <v>56826108</v>
       </c>
       <c r="B21" t="n">
-        <v>79012</v>
+        <v>78980</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2710,21 +2710,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>708587</v>
+        <v>708435</v>
       </c>
       <c r="R21" t="n">
-        <v>7070979</v>
+        <v>7071092</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2913,10 +2913,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>56826108</v>
+        <v>56826117</v>
       </c>
       <c r="B23" t="n">
-        <v>78980</v>
+        <v>79012</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2924,21 +2924,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2948,10 +2948,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>708435</v>
+        <v>708587</v>
       </c>
       <c r="R23" t="n">
-        <v>7071092</v>
+        <v>7070979</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3562,10 +3562,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>56826099</v>
+        <v>56826119</v>
       </c>
       <c r="B29" t="n">
-        <v>78980</v>
+        <v>78739</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3573,21 +3573,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3597,10 +3597,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>708714</v>
+        <v>708539</v>
       </c>
       <c r="R29" t="n">
-        <v>7070984</v>
+        <v>7070736</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -3669,10 +3669,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>56826119</v>
+        <v>56826099</v>
       </c>
       <c r="B30" t="n">
-        <v>78739</v>
+        <v>78980</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3680,21 +3680,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3704,10 +3704,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>708539</v>
+        <v>708714</v>
       </c>
       <c r="R30" t="n">
-        <v>7070736</v>
+        <v>7070984</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4526,32 +4526,32 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>56826087</v>
+        <v>56826120</v>
       </c>
       <c r="B38" t="n">
-        <v>95594</v>
+        <v>78980</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2809</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4561,10 +4561,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>708998</v>
+        <v>708484</v>
       </c>
       <c r="R38" t="n">
-        <v>7070851</v>
+        <v>7070628</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4611,6 +4611,11 @@
       <c r="AI38" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -4628,32 +4633,32 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>56826120</v>
+        <v>56826087</v>
       </c>
       <c r="B39" t="n">
-        <v>78980</v>
+        <v>95594</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>2809</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4663,10 +4668,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>708484</v>
+        <v>708998</v>
       </c>
       <c r="R39" t="n">
-        <v>7070628</v>
+        <v>7070851</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4713,11 +4718,6 @@
       <c r="AI39" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>gran</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5699,32 +5699,32 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>382765</v>
+        <v>299351</v>
       </c>
       <c r="B49" t="n">
-        <v>91699</v>
+        <v>91245</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5734,13 +5734,13 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>708771</v>
+        <v>708693</v>
       </c>
       <c r="R49" t="n">
-        <v>7070689</v>
+        <v>7070523</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -5806,32 +5806,32 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>299351</v>
+        <v>382765</v>
       </c>
       <c r="B50" t="n">
-        <v>91245</v>
+        <v>91699</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5841,13 +5841,13 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>708693</v>
+        <v>708771</v>
       </c>
       <c r="R50" t="n">
-        <v>7070523</v>
+        <v>7070689</v>
       </c>
       <c r="S50" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -5913,44 +5913,37 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>56374410</v>
+        <v>56071571</v>
       </c>
       <c r="B51" t="n">
-        <v>57761</v>
+        <v>77929</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>103031</v>
+        <v>6487</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lavskrika</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Perisoreus infaustus</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>stationär</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -5959,13 +5952,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>708770</v>
+        <v>708397</v>
       </c>
       <c r="R51" t="n">
-        <v>7070823</v>
+        <v>7070143</v>
       </c>
       <c r="S51" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -5989,12 +5982,12 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2007-10-18</t>
+          <t>2015-10-19</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2007-10-18</t>
+          <t>2015-10-19</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6009,22 +6002,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>56071571</v>
+        <v>56071572</v>
       </c>
       <c r="B52" t="n">
-        <v>77929</v>
+        <v>79569</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6032,21 +6025,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6487</v>
+        <v>229821</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -6060,10 +6053,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>708397</v>
+        <v>708404</v>
       </c>
       <c r="R52" t="n">
-        <v>7070143</v>
+        <v>7070148</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6122,37 +6115,44 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>56071572</v>
+        <v>56374410</v>
       </c>
       <c r="B53" t="n">
-        <v>79569</v>
+        <v>57761</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>229821</v>
+        <v>103031</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Lavskrika</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Perisoreus infaustus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>stationär</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -6161,13 +6161,13 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>708404</v>
+        <v>708770</v>
       </c>
       <c r="R53" t="n">
-        <v>7070148</v>
+        <v>7070823</v>
       </c>
       <c r="S53" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6191,12 +6191,12 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2015-10-19</t>
+          <t>2007-10-18</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2015-10-19</t>
+          <t>2007-10-18</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6211,12 +6211,12 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
@@ -6549,10 +6549,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56826110</v>
+        <v>56826088</v>
       </c>
       <c r="B57" t="n">
-        <v>79012</v>
+        <v>75080</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6560,21 +6560,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>185</v>
+        <v>1467</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6584,10 +6584,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>708400</v>
+        <v>708970</v>
       </c>
       <c r="R57" t="n">
-        <v>7071143</v>
+        <v>7070894</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>björkstubbe</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -6656,32 +6656,32 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>56826088</v>
+        <v>56826100</v>
       </c>
       <c r="B58" t="n">
-        <v>75080</v>
+        <v>91210</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1467</v>
+        <v>5447</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6691,10 +6691,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>708970</v>
+        <v>708708</v>
       </c>
       <c r="R58" t="n">
-        <v>7070894</v>
+        <v>7071002</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="AO58" t="inlineStr">
         <is>
-          <t>björkstubbe</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -6763,32 +6763,32 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>56826100</v>
+        <v>56826110</v>
       </c>
       <c r="B59" t="n">
-        <v>91210</v>
+        <v>79012</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5447</v>
+        <v>185</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6798,10 +6798,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>708708</v>
+        <v>708400</v>
       </c>
       <c r="R59" t="n">
-        <v>7071002</v>
+        <v>7071143</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6852,7 +6852,7 @@
       </c>
       <c r="AO59" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -7302,10 +7302,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>344329</v>
+        <v>162863</v>
       </c>
       <c r="B64" t="n">
-        <v>91259</v>
+        <v>88654</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7313,21 +7313,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1204</v>
+        <v>510</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7337,13 +7337,13 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>708733</v>
+        <v>708740</v>
       </c>
       <c r="R64" t="n">
-        <v>7070656</v>
+        <v>7070666</v>
       </c>
       <c r="S64" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>344328</v>
+        <v>344329</v>
       </c>
       <c r="B65" t="n">
         <v>91259</v>
@@ -7444,13 +7444,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>708801</v>
+        <v>708733</v>
       </c>
       <c r="R65" t="n">
-        <v>7070686</v>
+        <v>7070656</v>
       </c>
       <c r="S65" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>344327</v>
+        <v>344328</v>
       </c>
       <c r="B66" t="n">
         <v>91259</v>
@@ -7551,10 +7551,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>708815</v>
+        <v>708801</v>
       </c>
       <c r="R66" t="n">
-        <v>7070673</v>
+        <v>7070686</v>
       </c>
       <c r="S66" t="n">
         <v>5</v>
@@ -7587,11 +7587,6 @@
       <c r="AA66" t="inlineStr">
         <is>
           <t>2007-10-18</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>på en låga som ligger rakt över bäcken. Fruktkroppen sitter precis över bäcken</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7628,10 +7623,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>162863</v>
+        <v>344327</v>
       </c>
       <c r="B67" t="n">
-        <v>88654</v>
+        <v>91259</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7639,21 +7634,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>510</v>
+        <v>1204</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -7663,10 +7658,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>708740</v>
+        <v>708815</v>
       </c>
       <c r="R67" t="n">
-        <v>7070666</v>
+        <v>7070673</v>
       </c>
       <c r="S67" t="n">
         <v>5</v>
@@ -7699,6 +7694,11 @@
       <c r="AA67" t="inlineStr">
         <is>
           <t>2007-10-18</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>på en låga som ligger rakt över bäcken. Fruktkroppen sitter precis över bäcken</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7847,10 +7847,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>56826107</v>
+        <v>56071573</v>
       </c>
       <c r="B69" t="n">
-        <v>79569</v>
+        <v>78739</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7858,34 +7858,38 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>229821</v>
+        <v>228912</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr">
         <is>
           <t>Stockbäcken, Ång</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>708487</v>
+        <v>708441</v>
       </c>
       <c r="R69" t="n">
-        <v>7071123</v>
+        <v>7070237</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7912,12 +7916,12 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2015-10-19</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2015-10-19</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -7928,36 +7932,26 @@
       </c>
       <c r="AG69" t="b">
         <v>0</v>
-      </c>
-      <c r="AI69" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO69" t="inlineStr">
-        <is>
-          <t>silverstubbe tall</t>
-        </is>
       </c>
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>56826095</v>
+        <v>56826123</v>
       </c>
       <c r="B70" t="n">
-        <v>79012</v>
+        <v>78980</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7965,21 +7959,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -7989,10 +7983,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>708805</v>
+        <v>708509</v>
       </c>
       <c r="R70" t="n">
-        <v>7070899</v>
+        <v>7070534</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8168,10 +8162,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>56826123</v>
+        <v>56826095</v>
       </c>
       <c r="B72" t="n">
-        <v>78980</v>
+        <v>79012</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8179,21 +8173,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8203,10 +8197,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>708509</v>
+        <v>708805</v>
       </c>
       <c r="R72" t="n">
-        <v>7070534</v>
+        <v>7070899</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8275,10 +8269,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>56071573</v>
+        <v>56826107</v>
       </c>
       <c r="B73" t="n">
-        <v>78739</v>
+        <v>79569</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8286,38 +8280,34 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>228912</v>
+        <v>229821</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>Stockbäcken, Ång</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>708441</v>
+        <v>708487</v>
       </c>
       <c r="R73" t="n">
-        <v>7070237</v>
+        <v>7071123</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8344,12 +8334,12 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2015-10-19</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2015-10-19</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8360,26 +8350,36 @@
       </c>
       <c r="AG73" t="b">
         <v>0</v>
+      </c>
+      <c r="AI73" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO73" t="inlineStr">
+        <is>
+          <t>silverstubbe tall</t>
+        </is>
       </c>
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>56826092</v>
+        <v>56826105</v>
       </c>
       <c r="B74" t="n">
-        <v>88654</v>
+        <v>79598</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8387,21 +8387,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>510</v>
+        <v>6453</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8411,10 +8411,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>708960</v>
+        <v>708487</v>
       </c>
       <c r="R74" t="n">
-        <v>7070924</v>
+        <v>7071123</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="AO74" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>silverstubbe tall</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr"/>
@@ -8483,10 +8483,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>56826105</v>
+        <v>56826092</v>
       </c>
       <c r="B75" t="n">
-        <v>79598</v>
+        <v>88654</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8494,21 +8494,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6453</v>
+        <v>510</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8518,10 +8518,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>708487</v>
+        <v>708960</v>
       </c>
       <c r="R75" t="n">
-        <v>7071123</v>
+        <v>7070924</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8572,7 +8572,7 @@
       </c>
       <c r="AO75" t="inlineStr">
         <is>
-          <t>silverstubbe tall</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr"/>
@@ -8590,10 +8590,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>56826128</v>
+        <v>56826121</v>
       </c>
       <c r="B76" t="n">
-        <v>82792</v>
+        <v>78980</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8601,21 +8601,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -8625,10 +8625,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>708948</v>
+        <v>708464</v>
       </c>
       <c r="R76" t="n">
-        <v>7070843</v>
+        <v>7070612</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8679,7 +8679,7 @@
       </c>
       <c r="AO76" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr"/>
@@ -8697,7 +8697,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>56826097</v>
+        <v>56826101</v>
       </c>
       <c r="B77" t="n">
         <v>78980</v>
@@ -8732,10 +8732,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>708765</v>
+        <v>708673</v>
       </c>
       <c r="R77" t="n">
-        <v>7070877</v>
+        <v>7071044</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8786,7 +8786,7 @@
       </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr"/>
@@ -8804,10 +8804,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>56826101</v>
+        <v>56826128</v>
       </c>
       <c r="B78" t="n">
-        <v>78980</v>
+        <v>82792</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8815,21 +8815,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -8839,10 +8839,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>708673</v>
+        <v>708948</v>
       </c>
       <c r="R78" t="n">
-        <v>7071044</v>
+        <v>7070843</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8893,7 +8893,7 @@
       </c>
       <c r="AO78" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT78" t="inlineStr"/>
@@ -8911,7 +8911,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>56826121</v>
+        <v>56826097</v>
       </c>
       <c r="B79" t="n">
         <v>78980</v>
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>708464</v>
+        <v>708765</v>
       </c>
       <c r="R79" t="n">
-        <v>7070612</v>
+        <v>7070877</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
